--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_124_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_124_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.871219517624791, 3.319648660705731]</t>
+          <t>[2.86870190673126, 3.322166271599262]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.1195000208572683, 0.2704474156243464]</t>
+          <t>[0.11950002085727007, 0.2704474156243446]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,20 +617,20 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.13574687265847052, 0.4117028654335386]</t>
+          <t>[0.13563059532332034, 0.4118191427686888]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0002364564821544235</v>
+        <v>0.0002389433401643881</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002364564821544235</v>
+        <v>0.0002389433401643881</v>
       </c>
       <c r="W2" t="n">
         <v>23.9916716716724</v>
       </c>
       <c r="X2" t="n">
-        <v>23.69425425425497</v>
+        <v>23.69425425425498</v>
       </c>
       <c r="Y2" t="n">
         <v>24.28908908908982</v>
